--- a/data/trans_dic/P32C-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.00677436166448432</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0028608741923209</v>
+        <v>0.002860874192320902</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.00771781351968784</v>
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003289777645893158</v>
+        <v>0.003331582050505594</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009939470547814735</v>
+        <v>0.01224201491791944</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004283725491074129</v>
+        <v>0.004150468049408146</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.007380093808220076</v>
+        <v>0.007187609155995975</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001131772870598677</v>
+        <v>0.001150433495371291</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0314580797063848</v>
+        <v>0.03097483072938933</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05159624192667032</v>
+        <v>0.05955264282001987</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02248322725845586</v>
+        <v>0.02407814800472426</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01444213352957787</v>
+        <v>0.0147530057756127</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05743763425909595</v>
+        <v>0.04603373879256313</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.02949132495969575</v>
+        <v>0.02532277887682124</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02440265717382233</v>
+        <v>0.023929537822211</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03611651632918649</v>
+        <v>0.03377091424583693</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01556364104885536</v>
+        <v>0.01496618140779412</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01285515912036263</v>
+        <v>0.01306543186073138</v>
       </c>
     </row>
     <row r="7">
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007666741863107224</v>
+        <v>0.004399799055748607</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004420514362938058</v>
+        <v>0.004507646151117398</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003115223272622287</v>
+        <v>0.003034488561352816</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.002768549530965547</v>
+        <v>0.004547987702252885</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002587337774926588</v>
+        <v>0.002412195076606472</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.001895566031227406</v>
+        <v>0.001879867258595544</v>
       </c>
     </row>
     <row r="9">
@@ -874,34 +874,34 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03909657565456914</v>
+        <v>0.03968025111133561</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05485317933249421</v>
+        <v>0.05341255905570472</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04296445798892823</v>
+        <v>0.04482737557815853</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03748047277010937</v>
+        <v>0.03129652827044084</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03398143890202469</v>
+        <v>0.02761488057952783</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.0232238632334772</v>
+        <v>0.02626470976680203</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03444243250656159</v>
+        <v>0.03224469872236321</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0262642489659712</v>
+        <v>0.02216906918668849</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02148695944362103</v>
+        <v>0.01900731496298426</v>
       </c>
     </row>
     <row r="10">
@@ -960,16 +960,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005341718245930018</v>
+        <v>0.007274703866066906</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002760028577338384</v>
+        <v>0.002850647874562793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003441725998717105</v>
+        <v>0.003419045141594071</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003325010064445051</v>
+        <v>0.00339066544184035</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
@@ -978,16 +978,16 @@
       </c>
       <c r="J11" s="5" t="inlineStr"/>
       <c r="K11" s="5" t="n">
-        <v>0.004757889573678484</v>
+        <v>0.004778149984485972</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.002317733807425539</v>
+        <v>0.002346275322388088</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002997316113087651</v>
+        <v>0.004002205123586522</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0.002838645150537967</v>
       </c>
     </row>
     <row r="12">
@@ -998,34 +998,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03196947130514609</v>
+        <v>0.03257888313273247</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02510834038373643</v>
+        <v>0.02583250764228011</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03666685938274213</v>
+        <v>0.03207476890086988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02928344678468736</v>
+        <v>0.03009169572677623</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.09971533868215184</v>
+        <v>0.09841044488080061</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>0.02921505632369108</v>
+        <v>0.02766825458057752</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02226973887468381</v>
+        <v>0.02344430963993443</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03009925644647534</v>
+        <v>0.03443771016073178</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02430987713060162</v>
+        <v>0.02422927516857563</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>0.00705099395016144</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.0180846454651816</v>
+        <v>0.01808464546518159</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02132419400534578</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01408723410264316</v>
+        <v>0.0150633755475276</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01193367029520187</v>
+        <v>0.01174787878007699</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01097221364390761</v>
+        <v>0.01094010808464296</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005611017587601358</v>
+        <v>0.005483693289872798</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004522702689625411</v>
+        <v>0.005420098978262527</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01265497569208528</v>
+        <v>0.01289305125890188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.009696625688691432</v>
+        <v>0.008715569211541862</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.008961344981496784</v>
+        <v>0.00911939235340949</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.007137929205505116</v>
+        <v>0.00677898997248497</v>
       </c>
     </row>
     <row r="15">
@@ -1128,40 +1128,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03962719857876323</v>
+        <v>0.03929567388799451</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03394942190799934</v>
+        <v>0.03313174599270263</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03235513275518837</v>
+        <v>0.03195193027670243</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0254611621481497</v>
+        <v>0.02508946741648699</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04464760902118409</v>
+        <v>0.03788265009702632</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02212640148702609</v>
+        <v>0.02408256815896572</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0271224276638016</v>
+        <v>0.0217670119249428</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05510683755559641</v>
+        <v>0.05807223981345531</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03317643162355236</v>
+        <v>0.03329131774824325</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02732533259876189</v>
+        <v>0.02639411109767562</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02464746922788214</v>
+        <v>0.02578464589069746</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02669926545658018</v>
+        <v>0.02495067732123217</v>
       </c>
     </row>
     <row r="16">
@@ -1220,16 +1220,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01312156844574863</v>
+        <v>0.01278841396171605</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01490074981349039</v>
+        <v>0.01512211436707121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01025183061558299</v>
+        <v>0.01009201894164238</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01461810994048726</v>
+        <v>0.01391372969450604</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1239,19 +1239,19 @@
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.004444938017888077</v>
+        <v>0.003710210997825157</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01310919776122928</v>
+        <v>0.01173412454587926</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01140433274837333</v>
+        <v>0.01101582527031928</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.006666306954410625</v>
+        <v>0.00612507906320386</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01252198468687902</v>
+        <v>0.01251615187275044</v>
       </c>
     </row>
     <row r="18">
@@ -1262,38 +1262,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05845744253297136</v>
+        <v>0.05935985179618618</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05303476759242441</v>
+        <v>0.05457964160118948</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04665814251581078</v>
+        <v>0.04450595747312279</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05535171251771053</v>
+        <v>0.05067930821574259</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06599475559324156</v>
+        <v>0.06825627991714797</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03324775339089592</v>
+        <v>0.02784846742124412</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.03488710847885611</v>
+        <v>0.03568512980477439</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04741965858418314</v>
+        <v>0.04744591897660314</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03609991466982149</v>
+        <v>0.03519278612953462</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02955951536235416</v>
+        <v>0.029262691118883</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03865489205289427</v>
+        <v>0.03959458079767113</v>
       </c>
     </row>
     <row r="19">
@@ -1368,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003715369488207835</v>
+        <v>0.003696822419407999</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.002809525400602206</v>
+        <v>0.002799529182455661</v>
       </c>
       <c r="L20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.004652837358043962</v>
+        <v>0.004711450385855723</v>
       </c>
       <c r="N20" s="5" t="n">
         <v>0</v>
@@ -1394,38 +1394,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0319967748733513</v>
+        <v>0.04206007225409664</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04740903209225825</v>
+        <v>0.03817123162041235</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0374718437047303</v>
+        <v>0.04223282146491537</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.02791777830688953</v>
+        <v>0.03737114439549058</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0199878432021126</v>
+        <v>0.01997052620445768</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03555349297499314</v>
+        <v>0.03242390562089079</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07988392156035794</v>
+        <v>0.08753337851892518</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02293713723727991</v>
+        <v>0.02293767458135845</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02024515038999243</v>
+        <v>0.02008355343378868</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02624205075684484</v>
+        <v>0.02769480170134381</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05275629413493441</v>
+        <v>0.05294834056111963</v>
       </c>
     </row>
     <row r="22">
@@ -1484,40 +1484,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01321094187053616</v>
+        <v>0.01304002023915187</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01392199464145058</v>
+        <v>0.01443090074843134</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01083047701336607</v>
+        <v>0.01091859352199047</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.008197706990982479</v>
+        <v>0.007594459144270966</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003933230639320762</v>
+        <v>0.003902136191402368</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.000961573466443054</v>
+        <v>0.0009627222431546769</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.002599719736002238</v>
+        <v>0.001943637626180665</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.005488027202160669</v>
+        <v>0.005525917716104447</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01118102874683875</v>
+        <v>0.01109439274103272</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01050622097775868</v>
+        <v>0.01050579184079134</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.009155470562122828</v>
+        <v>0.008732449269258832</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.00845456345256658</v>
+        <v>0.008345150113576146</v>
       </c>
     </row>
     <row r="24">
@@ -1528,40 +1528,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02689247548339125</v>
+        <v>0.02619410282220167</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02707732726294331</v>
+        <v>0.02775484065743832</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02215409997643649</v>
+        <v>0.02288543245947033</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01814446043454087</v>
+        <v>0.01800580952878768</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0185296062380959</v>
+        <v>0.0184296980178311</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.007863135690097346</v>
+        <v>0.007792711241361431</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01124938317216206</v>
+        <v>0.0112126573684347</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02349924265191745</v>
+        <v>0.02258814187655926</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02128965397835155</v>
+        <v>0.02077544403881684</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01917198295710286</v>
+        <v>0.01953490209236389</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0169090203824095</v>
+        <v>0.017180258694474</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.01703516231336999</v>
+        <v>0.01713141636581857</v>
       </c>
     </row>
     <row r="25">
@@ -1834,10 +1834,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2896</v>
+        <v>3567</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1854,16 +1854,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1786</v>
+        <v>1730</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3236</v>
+        <v>3152</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7">
@@ -1874,36 +1874,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9086</v>
+        <v>8946</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15034</v>
+        <v>17353</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6470</v>
+        <v>6929</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4384</v>
+        <v>4478</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7356</v>
+        <v>5895</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>5173</v>
+        <v>4442</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10173</v>
+        <v>9976</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>15836</v>
+        <v>14808</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6840</v>
+        <v>6577</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6157</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="8">
@@ -2009,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1942</v>
+        <v>1114</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -2027,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1096</v>
+        <v>1800</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1093</v>
+        <v>1019</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11">
@@ -2044,34 +2044,34 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8727</v>
+        <v>8857</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13895</v>
+        <v>13530</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10065</v>
+        <v>10502</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8422</v>
+        <v>7032</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5197</v>
+        <v>4223</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>8735</v>
+        <v>9879</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>13633</v>
+        <v>12763</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11091</v>
+        <v>9362</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>7944</v>
+        <v>7027</v>
       </c>
     </row>
     <row r="12">
@@ -2174,16 +2174,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1810</v>
+        <v>2464</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1064</v>
+        <v>1099</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -2192,16 +2192,16 @@
       </c>
       <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="n">
-        <v>1906</v>
+        <v>1914</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1073</v>
+        <v>1087</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1146</v>
+        <v>1531</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15">
@@ -2212,34 +2212,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10830</v>
+        <v>11037</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9676</v>
+        <v>9955</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11984</v>
+        <v>10483</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6680</v>
+        <v>6864</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>5542</v>
+        <v>5469</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>11702</v>
+        <v>11082</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>10313</v>
+        <v>10857</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11510</v>
+        <v>13170</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>6677</v>
+        <v>6655</v>
       </c>
     </row>
     <row r="16">
@@ -2342,16 +2342,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9432</v>
+        <v>10086</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7847</v>
+        <v>7725</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7191</v>
+        <v>7170</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3046</v>
+        <v>2977</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1042</v>
+        <v>1249</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10920</v>
+        <v>11125</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>8595</v>
+        <v>7725</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8540</v>
+        <v>8690</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5520</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="19">
@@ -2386,40 +2386,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26532</v>
+        <v>26310</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22324</v>
+        <v>21786</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21205</v>
+        <v>20941</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13823</v>
+        <v>13621</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8632</v>
+        <v>7324</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5063</v>
+        <v>5510</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8071</v>
+        <v>6477</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12699</v>
+        <v>13382</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28627</v>
+        <v>28726</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>24220</v>
+        <v>23395</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>23488</v>
+        <v>24572</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>20647</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="20">
@@ -2522,16 +2522,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2835</v>
+        <v>2763</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4532</v>
+        <v>4599</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3188</v>
+        <v>3138</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3768</v>
+        <v>3587</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2541,19 +2541,19 @@
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>681</v>
+        <v>569</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4673</v>
+        <v>4183</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5567</v>
+        <v>5378</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3309</v>
+        <v>3040</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5147</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="23">
@@ -2564,38 +2564,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12631</v>
+        <v>12826</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16129</v>
+        <v>16599</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14509</v>
+        <v>13840</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14268</v>
+        <v>13064</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9265</v>
+        <v>9583</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>6119</v>
+        <v>5126</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>5346</v>
+        <v>5469</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>16903</v>
+        <v>16913</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>17623</v>
+        <v>17180</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>14673</v>
+        <v>14526</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>15888</v>
+        <v>16274</v>
       </c>
     </row>
     <row r="24">
@@ -2714,19 +2714,19 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1897</v>
+        <v>1921</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0</v>
@@ -2740,38 +2740,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4464</v>
+        <v>5868</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6617</v>
+        <v>5328</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5994</v>
+        <v>6755</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>6089</v>
+        <v>8151</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5183</v>
+        <v>5179</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8809</v>
+        <v>8034</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10103</v>
+        <v>11070</v>
       </c>
       <c r="K27" s="6" t="n">
         <v>8203</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>8076</v>
+        <v>8011</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>10699</v>
+        <v>11292</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>11201</v>
+        <v>11242</v>
       </c>
     </row>
     <row r="28">
@@ -2874,40 +2874,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>24783</v>
+        <v>24462</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>28280</v>
+        <v>29313</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>21392</v>
+        <v>21567</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>13468</v>
+        <v>12477</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3519</v>
+        <v>3491</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2927</v>
+        <v>2189</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>4814</v>
+        <v>4847</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>30977</v>
+        <v>30737</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>32263</v>
+        <v>32261</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>28393</v>
+        <v>27081</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>21305</v>
+        <v>21030</v>
       </c>
     </row>
     <row r="31">
@@ -2918,40 +2918,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>50448</v>
+        <v>49138</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>55002</v>
+        <v>56378</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>43759</v>
+        <v>45204</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>29809</v>
+        <v>29581</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16576</v>
+        <v>16487</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>8174</v>
+        <v>8101</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>12667</v>
+        <v>12626</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>20612</v>
+        <v>19813</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>58983</v>
+        <v>57559</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>58874</v>
+        <v>59988</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>52439</v>
+        <v>53280</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>42929</v>
+        <v>43171</v>
       </c>
     </row>
     <row r="32">
